--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>47062c269047546c780d3149cde292430ae48b5c</t>
+    <t>ac692b817239b3fe7645ed7aa49617c55eebfad3</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- tests
+    <t xml:space="preserve">- update lib
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,14 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>ac692b817239b3fe7645ed7aa49617c55eebfad3</t>
+    <t>38388b6f792b517ba08ed9f186f05bbe7bdc4c8e</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- update lib
-</t>
+    <t>Update [AQUOSトリック] インテリジェントチャージ.MD</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,7 +102,7 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>38388b6f792b517ba08ed9f186f05bbe7bdc4c8e</t>
+    <t>cbba9b668f5cbcc3d5d31acba9931a3b4399fb52</t>
   </si>
   <si>
     <t>N/A</t>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,14 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>cbba9b668f5cbcc3d5d31acba9931a3b4399fb52</t>
+    <t>802f89cb27d57500a053195bee3c943539b909e4</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Update [AQUOSトリック] インテリジェントチャージ.MD</t>
+    <t xml:space="preserve">- update Library/em-testcasemng-tool-1.0.0.jar
+</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>802f89cb27d57500a053195bee3c943539b909e4</t>
+    <t>5c83d3118805bb4607f3e80d049b8dd0db57270a</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- update Library/em-testcasemng-tool-1.0.0.jar
+    <t xml:space="preserve">-
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>5c83d3118805bb4607f3e80d049b8dd0db57270a</t>
+    <t>aa44de7f53eb7c4b8a75045d00701c4ba301f779</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">-
+    <t xml:space="preserve">-l
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,14 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>aa44de7f53eb7c4b8a75045d00701c4ba301f779</t>
+    <t>a359d4aa6b4f3a5c75d1bc10a04c40e147bfbde7</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">-l
-</t>
+    <t>Update [AQUOSトリック] インテリジェントチャージ.MD</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,14 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>a359d4aa6b4f3a5c75d1bc10a04c40e147bfbde7</t>
+    <t>103eb7223be7c0a91d82f0098310dc24b5683ed1</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Update [AQUOSトリック] インテリジェントチャージ.MD</t>
+    <t xml:space="preserve">- ok
+</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>103eb7223be7c0a91d82f0098310dc24b5683ed1</t>
+    <t>1ec022847a700faea263e165c489add27b3d0849</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- ok
+    <t xml:space="preserve">- xong
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>1ec022847a700faea263e165c489add27b3d0849</t>
+    <t>0bbb2f3adecb6d754b80df61b08c48a47c97d9fc</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- xong
+    <t xml:space="preserve">- .
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>0bbb2f3adecb6d754b80df61b08c48a47c97d9fc</t>
+    <t>ff56795d874c685c1e2fa062102f21c83e54ccb6</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- .
+    <t xml:space="preserve">-lib
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>ff56795d874c685c1e2fa062102f21c83e54ccb6</t>
+    <t>89d15e079e3a2f2d83821b951c18a7fe85e1624c</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">-lib
+    <t xml:space="preserve">- update lib
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>89d15e079e3a2f2d83821b951c18a7fe85e1624c</t>
+    <t>30710fcc0df06fc276cbb8ea670ac1b3bd3f5363</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- update lib
+    <t xml:space="preserve">-update link
 </t>
   </si>
   <si>

--- a/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
+++ b/Reports/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.xlsx
@@ -102,13 +102,13 @@
     <t>11/13/21 10:42:38</t>
   </si>
   <si>
-    <t>30710fcc0df06fc276cbb8ea670ac1b3bd3f5363</t>
+    <t>917c79824013932b9a179f7f7dcede1ed3ecac89</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">-update link
+    <t xml:space="preserve">- update title
 </t>
   </si>
   <si>
